--- a/biology/Zoologie/Echinanthus_lecointrae/Echinanthus_lecointrae.xlsx
+++ b/biology/Zoologie/Echinanthus_lecointrae/Echinanthus_lecointrae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinocyamus lebescontei est une espèce éteinte d'oursins du Cénozoïque de la famille des Echinocyamidae. Elle est aussi nommée Echinanthus lecointrae.
-Ce taxon Echinanthus lecointrae est à mettre en synonymie avec Echinocyamus lebescontei[1], selon Philippe Nicolleau et Jean-Christophe Dudicourt[2]. Ils indiquent que « la taille des individus (moins de 3 mm) ne facilite pas la détermination ».
+Ce taxon Echinanthus lecointrae est à mettre en synonymie avec Echinocyamus lebescontei, selon Philippe Nicolleau et Jean-Christophe Dudicourt. Ils indiquent que « la taille des individus (moins de 3 mm) ne facilite pas la détermination ».
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est décrit comme une espèce de très petite taille, déprimée, elliptique, élargie  et légèrement tronquée en arrière, à bords renflés. Sa face supérieure est un  peu  arrondie, plus ou  moins  selon  les individus, sans doute à cause des dix cloisons de l'intérieur plus ou moins  élevées; la face inférieure offre une faible excavation vers le milieu.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite comme suit par Yves Bazin de Jessey[3] : Espèce de très petite taille, déprimée, elliptique, élargie et légèrement tronquée en arrière, à bords renflés. La face supérieure est un peu arrondie, plus ou moins selon les individus, sans doute à cause des dix cloisons de l'intérieur plus ou moins élevées; la face inférieure offre une faible excavation vers le milieu. Les ambulacres, à peine visibles, même à la loupe, sont imparfaitement pétaloïdes. Le péristome, presque central, un peu plus en avant, est rond, petit, sans lèvres saillantes. Le périprocte s'aperçoit à l'extrémité de la  face inférieure et quelquefois il est même marginal, surtout dans les individus plus renflés. Il s'ensuivrait qu'il y aurait probablement dans les faluns du Miocène breton plusieurs espèces à' Echinocyamus à distinguer; mais Desor l'a remarqué avec justesse : si petite est la différence entre les espèces de ce genre, qu'elles sont d'un faible secours. .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite comme suit par Yves Bazin de Jessey : Espèce de très petite taille, déprimée, elliptique, élargie et légèrement tronquée en arrière, à bords renflés. La face supérieure est un peu arrondie, plus ou moins selon les individus, sans doute à cause des dix cloisons de l'intérieur plus ou moins élevées; la face inférieure offre une faible excavation vers le milieu. Les ambulacres, à peine visibles, même à la loupe, sont imparfaitement pétaloïdes. Le péristome, presque central, un peu plus en avant, est rond, petit, sans lèvres saillantes. Le périprocte s'aperçoit à l'extrémité de la  face inférieure et quelquefois il est même marginal, surtout dans les individus plus renflés. Il s'ensuivrait qu'il y aurait probablement dans les faluns du Miocène breton plusieurs espèces à' Echinocyamus à distinguer; mais Desor l'a remarqué avec justesse : si petite est la différence entre les espèces de ce genre, qu'elles sont d'un faible secours. .
 </t>
         </is>
       </c>
